--- a/Planilhas_Física/Relatorio2.xlsx
+++ b/Planilhas_Física/Relatorio2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\Planilhas_Física\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E491335-BAE5-48E4-9F24-23DD5CE3A1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365E9C00-BF4F-4F1F-B065-8CAF9BFADF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B734B11A-CBEB-4ACD-A026-634FE6791D70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B734B11A-CBEB-4ACD-A026-634FE6791D70}"/>
   </bookViews>
   <sheets>
     <sheet name="DadosAnalogico" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>T(s)</t>
   </si>
@@ -79,7 +79,10 @@
     <t>Erro da Média(t)</t>
   </si>
   <si>
-    <t>Erro Total (s)</t>
+    <t>Erro Total T(s)</t>
+  </si>
+  <si>
+    <t>Erro Total de T(s)</t>
   </si>
 </sst>
 </file>
@@ -175,7 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -225,6 +228,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -305,7 +311,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1200" baseline="0"/>
-            <a:t> instrumetais</a:t>
+            <a:t> instrumentais</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
@@ -586,7 +592,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1200" baseline="0"/>
-            <a:t> instrumetais</a:t>
+            <a:t> instrumentais</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
@@ -600,23 +606,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>598887</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>128191</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>894161</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Retângulo: Cantos Arredondados 3">
+        <xdr:cNvPr id="5" name="Retângulo: Cantos Arredondados 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF93E50-2D2A-46B5-A1C3-08FAE4880B29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8EC7B99-1C98-4862-AFAF-000D6EDFF2D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -624,8 +630,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5276850" y="3209925"/>
-          <a:ext cx="1875237" cy="347266"/>
+          <a:off x="3333749" y="3419475"/>
+          <a:ext cx="1875237" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -653,16 +659,8 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1200"/>
-            <a:t>Incertezas</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="pt-BR" sz="1200" baseline="0"/>
-            <a:t> instrumetais</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
-            <a:t> </a:t>
+            <a:t>Erro total t </a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100"/>
         </a:p>
@@ -972,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A95FD64-4CD7-4358-B999-AD72C9756F13}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,7 +1232,7 @@
         <v>0.36</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F20" s="10">
         <f>SQRT(F7^2 + F15^2)</f>
@@ -1622,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE274979-5883-4EC9-B875-A5D4A6D37BB1}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,6 +1852,13 @@
       <c r="B21" s="13">
         <v>0.41599999999999998</v>
       </c>
+      <c r="E21" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="10">
+        <f>SQRT(F9^2 +F17^2)</f>
+        <v>8.0978014267620436E-4</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="10">

--- a/Planilhas_Física/Relatorio2.xlsx
+++ b/Planilhas_Física/Relatorio2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\Planilhas_Física\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365E9C00-BF4F-4F1F-B065-8CAF9BFADF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F33C27-1B61-4A4E-904B-972D1EFFAFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B734B11A-CBEB-4ACD-A026-634FE6791D70}"/>
   </bookViews>
@@ -178,7 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -228,9 +228,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -253,13 +250,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>694528</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>9924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1031874</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>168674</xdr:rowOff>
@@ -325,16 +322,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>797317</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>866770</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>182166</xdr:rowOff>
+      <xdr:rowOff>172244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>912812</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>982265</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>128985</xdr:rowOff>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -349,7 +346,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3982239" y="182166"/>
+          <a:off x="4051692" y="172244"/>
           <a:ext cx="1653386" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -393,13 +390,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>688178</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>92870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1025524</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>63105</xdr:rowOff>
@@ -459,6 +456,70 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>49609</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>39688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>962421</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>138906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Retângulo: Cantos Arredondados 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E5A00A4-DC95-4C7C-A8A7-F49BA5AAF585}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="49609" y="39688"/>
+          <a:ext cx="1815703" cy="287734"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>Cálculos Analógico</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -467,15 +528,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>824711</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>843761</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -490,8 +551,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3324225" y="533400"/>
-          <a:ext cx="1653386" cy="323850"/>
+          <a:off x="3343275" y="104775"/>
+          <a:ext cx="1815311" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -535,15 +596,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>903687</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>32941</xdr:rowOff>
+      <xdr:colOff>884637</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99616</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -558,7 +619,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3343275" y="2543175"/>
+          <a:off x="3324225" y="2038350"/>
           <a:ext cx="1875237" cy="347266"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -607,15 +668,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>894161</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>846536</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -630,7 +691,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3333749" y="3419475"/>
+          <a:off x="3286124" y="2809875"/>
           <a:ext cx="1875237" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -661,6 +722,70 @@
           <a:r>
             <a:rPr lang="pt-BR" sz="1200" baseline="0"/>
             <a:t>Erro total t </a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>43661</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Retângulo: Cantos Arredondados 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{419D7EC7-EA5F-4564-8A02-1006F51322A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="28575" y="0"/>
+          <a:ext cx="1815311" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>Cálculos Digital </a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100"/>
         </a:p>
@@ -968,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A95FD64-4CD7-4358-B999-AD72C9756F13}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,635 +1104,639 @@
     <col min="1" max="1" width="13.5703125" style="8" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="G3" s="3"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B4" s="11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="D4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="3"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B5" s="12">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="D5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="13">
+        <f>AVERAGE(B4:B63)</f>
+        <v>0.29849999999999988</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B6" s="12">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="3"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="D6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="14">
+        <f>_xlfn.STDEV.S(B4:B63)</f>
+        <v>4.5129756428040561E-2</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>4</v>
-      </c>
-      <c r="B5" s="12">
-        <v>0.21</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="13">
-        <f>AVERAGE(B2:B61)</f>
-        <v>0.29849999999999988</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="14">
-        <f>_xlfn.STDEV.S(B2:B61)</f>
-        <v>4.5129756428040561E-2</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>6</v>
       </c>
       <c r="B7" s="12">
         <v>0.21</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="15">
-        <f>F6/SQRT(60)</f>
+      <c r="E7" s="15">
+        <f>E6/SQRT(60)</f>
         <v>5.8262265021399402E-3</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="3"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F7" s="18"/>
+      <c r="G7" s="3"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10">
+        <v>9.7878989999999995</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="16">
+        <f>(2*E4)/(POWER(E5,2))</f>
+        <v>20.201510062877219</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="15">
+        <f>(2*E4)/(0.45*0.45)</f>
+        <v>8.8888888888888893</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>7</v>
-      </c>
-      <c r="B8" s="12">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="10">
-        <v>9.7878989999999995</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12">
-        <v>0.27</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="16">
-        <f>(2*F4)/(POWER(F5,2))</f>
-        <v>20.201510062877219</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="15">
-        <f>(2*F4)/(0.45*0.45)</f>
-        <v>8.8888888888888893</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>9</v>
       </c>
       <c r="B10" s="12">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="10">
-        <f>SQRT(2*F4/F9)</f>
+      <c r="E10" s="10">
+        <f>SQRT(2*E4/E9)</f>
         <v>0.29849999999999988</v>
       </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.27</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>9</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B13" s="12">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>11</v>
-      </c>
-      <c r="B12" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12">
-        <v>0.34</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>13</v>
       </c>
       <c r="B14" s="12">
         <v>0.35</v>
       </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
+        <v>12</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>13</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
         <v>14</v>
-      </c>
-      <c r="B15" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>15</v>
-      </c>
-      <c r="B16" s="12">
-        <v>0.22</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>16</v>
       </c>
       <c r="B17" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
+        <v>15</v>
+      </c>
+      <c r="B18" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>16</v>
+      </c>
+      <c r="B19" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B20" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="D20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="12">
+      <c r="E20" s="10">
+        <f>SQRT(E7^2 + E15^2)</f>
+        <v>7.6775591990057498E-3</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>18</v>
+      </c>
+      <c r="B21" s="12">
         <v>0.36</v>
       </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B22" s="12">
         <v>0.36</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="10">
-        <f>SQRT(F7^2 + F15^2)</f>
-        <v>7.6775591990057498E-3</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>20</v>
-      </c>
-      <c r="B21" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>21</v>
-      </c>
-      <c r="B22" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>22</v>
       </c>
       <c r="B23" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
+        <v>21</v>
+      </c>
+      <c r="B24" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>22</v>
+      </c>
+      <c r="B25" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
         <v>23</v>
-      </c>
-      <c r="B24" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>24</v>
-      </c>
-      <c r="B25" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>25</v>
       </c>
       <c r="B26" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
+        <v>24</v>
+      </c>
+      <c r="B27" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>25</v>
+      </c>
+      <c r="B28" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
         <v>26</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B29" s="12">
         <v>0.22</v>
       </c>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
         <v>27</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B30" s="12">
         <v>0.36</v>
       </c>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
         <v>28</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B31" s="12">
         <v>0.35</v>
       </c>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
         <v>29</v>
-      </c>
-      <c r="B30" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <v>30</v>
-      </c>
-      <c r="B31" s="12">
-        <v>0.36</v>
-      </c>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
-        <v>31</v>
       </c>
       <c r="B32" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.36</v>
+      </c>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" s="12">
         <v>0.35</v>
       </c>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
+        <v>33</v>
+      </c>
+      <c r="B36" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>34</v>
+      </c>
+      <c r="B37" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
         <v>35</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B38" s="12">
         <v>0.35</v>
       </c>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
         <v>36</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B39" s="12">
         <v>0.22</v>
       </c>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
         <v>37</v>
-      </c>
-      <c r="B38" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
-        <v>38</v>
-      </c>
-      <c r="B39" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
-        <v>39</v>
       </c>
       <c r="B40" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B42" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
+        <v>40</v>
+      </c>
+      <c r="B43" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>41</v>
+      </c>
+      <c r="B44" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
         <v>42</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B45" s="12">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
         <v>43</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B46" s="12">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
         <v>44</v>
-      </c>
-      <c r="B45" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
-        <v>45</v>
-      </c>
-      <c r="B46" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
-        <v>46</v>
       </c>
       <c r="B47" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
+        <v>45</v>
+      </c>
+      <c r="B48" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>46</v>
+      </c>
+      <c r="B49" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
         <v>47</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B50" s="12">
         <v>0.22</v>
       </c>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
         <v>48</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B51" s="12">
         <v>0.22</v>
       </c>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
         <v>49</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B52" s="12">
         <v>0.23</v>
       </c>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
         <v>50</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B53" s="12">
         <v>0.35</v>
       </c>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
         <v>51</v>
-      </c>
-      <c r="B52" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
-        <v>52</v>
-      </c>
-      <c r="B53" s="12">
-        <v>0.36</v>
-      </c>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
-        <v>53</v>
       </c>
       <c r="B54" s="12">
         <v>0.35</v>
       </c>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
+        <v>52</v>
+      </c>
+      <c r="B55" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>53</v>
+      </c>
+      <c r="B56" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
         <v>54</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B57" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
         <v>55</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B58" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
         <v>56</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B59" s="12">
         <v>0.3</v>
       </c>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
         <v>57</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B60" s="12">
         <v>0.35</v>
       </c>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
         <v>58</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B61" s="12">
         <v>0.35</v>
       </c>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
         <v>59</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B62" s="12">
         <v>0.22</v>
       </c>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
         <v>60</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B63" s="12">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H61" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1618,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE274979-5883-4EC9-B875-A5D4A6D37BB1}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A3:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,214 +1761,205 @@
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13">
-        <v>0.41799999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13">
-        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="13">
-        <v>0.42599999999999999</v>
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="13">
-        <v>0.439</v>
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="13">
+        <f>AVERAGE(B4:B63)</f>
+        <v>0.42116666666666658</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="13">
-        <v>0.434</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.9</v>
+        <v>6</v>
+      </c>
+      <c r="F6" s="15">
+        <f>_xlfn.STDEV.S(B4:B63)</f>
+        <v>4.934028046977605E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="13">
-        <v>0.436</v>
+        <v>0.439</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="13">
-        <f>AVERAGE(B2:B62)</f>
-        <v>0.42116666666666658</v>
+        <v>15</v>
+      </c>
+      <c r="F7" s="17">
+        <f>F6/SQRT(60)</f>
+        <v>6.3698028185548566E-4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="13">
-        <v>0.41399999999999998</v>
+        <v>0.434</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="15">
-        <f>_xlfn.STDEV.S(B2:B62)</f>
-        <v>4.934028046977605E-3</v>
+        <v>12</v>
+      </c>
+      <c r="F8" s="10">
+        <v>9.7878989999999995</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="13">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="17">
-        <f>F8/SQRT(60)</f>
-        <v>6.3698028185548566E-4</v>
+        <v>0.436</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="10">
+        <f>2*F4/F5^2</f>
+        <v>10.147627624034786</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="13">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" s="10">
-        <v>9.7878989999999995</v>
+        <f>SQRT(2*F4/F9)</f>
+        <v>0.42116666666666658</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="13">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="10">
-        <f>2*F6/F7^2</f>
-        <v>10.147627624034786</v>
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="13">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="10">
-        <f>SQRT(2*F6/F11)</f>
-        <v>0.42116666666666658</v>
+        <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="13">
-        <v>0.41399999999999998</v>
+        <v>0.41499999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="13">
-        <v>0.41799999999999998</v>
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="10">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="13">
-        <v>0.42299999999999999</v>
+        <v>0.41399999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="13">
-        <v>0.42199999999999999</v>
+        <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="13">
         <v>0.42299999999999999</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="10">
-        <v>5.0000000000000001E-4</v>
-      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
+        <v>15</v>
+      </c>
+      <c r="B18" s="13">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="13">
-        <v>0.42299999999999999</v>
+      <c r="F18" s="10">
+        <f>SQRT(F7^2 +F14^2)</f>
+        <v>8.0978014267620436E-4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="13">
-        <v>0.41799999999999998</v>
+        <v>0.42299999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="13">
         <v>0.42299999999999999</v>
@@ -1847,38 +1967,31 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="13">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="10">
-        <f>SQRT(F9^2 +F17^2)</f>
-        <v>8.0978014267620436E-4</v>
+        <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="13">
-        <v>0.41699999999999998</v>
+        <v>0.42299999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="13">
-        <v>0.42099999999999999</v>
+        <v>0.41599999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="13">
         <v>0.41699999999999998</v>
@@ -1886,119 +1999,119 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="13">
-        <v>0.41299999999999998</v>
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="13">
-        <v>0.41599999999999998</v>
+        <v>0.41699999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="13">
-        <v>0.42099999999999999</v>
+        <v>0.41299999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>27</v>
-      </c>
-      <c r="B28" s="10">
-        <v>0.42</v>
+        <v>25</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.41599999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="13">
-        <v>0.41599999999999998</v>
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
-        <v>29</v>
-      </c>
-      <c r="B30" s="13">
-        <v>0.42199999999999999</v>
+        <v>27</v>
+      </c>
+      <c r="B30" s="10">
+        <v>0.42</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" s="13">
-        <v>0.42</v>
+        <v>0.41599999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="13">
-        <v>0.42699999999999999</v>
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
-        <v>32</v>
-      </c>
-      <c r="B33" s="10">
+        <v>30</v>
+      </c>
+      <c r="B33" s="13">
         <v>0.42</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" s="13">
-        <v>0.42199999999999999</v>
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
-        <v>34</v>
-      </c>
-      <c r="B35" s="13">
-        <v>0.42199999999999999</v>
+        <v>32</v>
+      </c>
+      <c r="B35" s="10">
+        <v>0.42</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" s="13">
-        <v>0.42099999999999999</v>
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
-        <v>36</v>
-      </c>
-      <c r="B37" s="10">
-        <v>0.42</v>
+        <v>34</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="13">
-        <v>0.41799999999999998</v>
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" s="10">
         <v>0.42</v>
@@ -2006,177 +2119,193 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40" s="13">
-        <v>0.42099999999999999</v>
+        <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
-        <v>40</v>
-      </c>
-      <c r="B41" s="13">
-        <v>0.42099999999999999</v>
+        <v>38</v>
+      </c>
+      <c r="B41" s="10">
+        <v>0.42</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B42" s="13">
-        <v>0.42199999999999999</v>
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43" s="13">
-        <v>0.42199999999999999</v>
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44" s="13">
-        <v>0.42299999999999999</v>
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
-        <v>44</v>
-      </c>
-      <c r="B45" s="10">
-        <v>0.42</v>
+        <v>42</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46" s="13">
-        <v>0.42699999999999999</v>
+        <v>0.42299999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
-        <v>46</v>
-      </c>
-      <c r="B47" s="13">
-        <v>0.42299999999999999</v>
+        <v>44</v>
+      </c>
+      <c r="B47" s="10">
+        <v>0.42</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="13">
-        <v>0.41799999999999998</v>
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49" s="13">
-        <v>0.42699999999999999</v>
+        <v>0.42299999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50" s="13">
-        <v>0.42199999999999999</v>
+        <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51" s="13">
-        <v>0.42199999999999999</v>
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="13">
-        <v>0.42099999999999999</v>
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B53" s="13">
-        <v>0.41599999999999998</v>
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54" s="13">
-        <v>0.42399999999999999</v>
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B55" s="13">
-        <v>0.42099999999999999</v>
+        <v>0.41599999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56" s="13">
-        <v>0.41299999999999998</v>
+        <v>0.42399999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" s="13">
-        <v>0.41899999999999998</v>
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58" s="13">
-        <v>0.41799999999999998</v>
+        <v>0.41299999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59" s="13">
-        <v>0.42199999999999999</v>
+        <v>0.41899999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60" s="13">
-        <v>0.41499999999999998</v>
+        <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
+        <v>58</v>
+      </c>
+      <c r="B61" s="13">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>59</v>
+      </c>
+      <c r="B62" s="13">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
         <v>60</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B63" s="13">
         <v>0.42599999999999999</v>
       </c>
     </row>

--- a/Planilhas_Física/Relatorio2.xlsx
+++ b/Planilhas_Física/Relatorio2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\Planilhas_Física\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F33C27-1B61-4A4E-904B-972D1EFFAFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C971D1A-BC07-471A-B796-DAB41732DBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B734B11A-CBEB-4ACD-A026-634FE6791D70}"/>
   </bookViews>
   <sheets>
     <sheet name="DadosAnalogico" sheetId="1" r:id="rId1"/>
-    <sheet name="DadosDigitais" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="3" r:id="rId2"/>
+    <sheet name="DadosDigitais" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>T(s)</t>
   </si>
@@ -129,12 +130,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -178,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -228,6 +235,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -325,13 +335,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>866770</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>172244</xdr:rowOff>
+      <xdr:rowOff>142478</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>982265</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:rowOff>89297</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -346,8 +356,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4051692" y="172244"/>
-          <a:ext cx="1653386" cy="323850"/>
+          <a:off x="3446458" y="142478"/>
+          <a:ext cx="1653385" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -524,6 +534,96 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>367903</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>21034</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo: Cantos Arredondados 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3358F40E-176E-47AB-8A00-4105AC2636B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1600200" y="114300"/>
+          <a:ext cx="1815703" cy="287734"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="18900000" algn="bl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Dados Analógico</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1096,7 +1196,7 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A3" sqref="A3:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,10 +1846,447 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB93E90-41DC-4A57-BF3D-E5677749569C}">
+  <dimension ref="A4:H24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D5" s="21">
+        <v>21</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="G5" s="21">
+        <v>41</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D6" s="21">
+        <v>22</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G6" s="21">
+        <v>42</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D7" s="21">
+        <v>23</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G7" s="21">
+        <v>43</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="D8" s="21">
+        <v>24</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="G8" s="21">
+        <v>44</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D9" s="21">
+        <v>25</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G9" s="21">
+        <v>45</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="D10" s="21">
+        <v>26</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="G10" s="21">
+        <v>46</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D11" s="21">
+        <v>27</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="G11" s="21">
+        <v>47</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0.27</v>
+      </c>
+      <c r="D12" s="21">
+        <v>28</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="G12" s="21">
+        <v>48</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D13" s="21">
+        <v>29</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G13" s="21">
+        <v>49</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D14" s="21">
+        <v>30</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="G14" s="21">
+        <v>50</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <v>11</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="D15" s="21">
+        <v>31</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G15" s="21">
+        <v>51</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
+        <v>12</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="D16" s="21">
+        <v>32</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="G16" s="21">
+        <v>52</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
+        <v>13</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="D17" s="21">
+        <v>33</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G17" s="21">
+        <v>53</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <v>14</v>
+      </c>
+      <c r="B18" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D18" s="21">
+        <v>34</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="G18" s="21">
+        <v>54</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
+        <v>15</v>
+      </c>
+      <c r="B19" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="D19" s="21">
+        <v>35</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="G19" s="21">
+        <v>55</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>16</v>
+      </c>
+      <c r="B20" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D20" s="21">
+        <v>36</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="G20" s="21">
+        <v>56</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>17</v>
+      </c>
+      <c r="B21" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D21" s="21">
+        <v>37</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G21" s="21">
+        <v>57</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
+        <v>18</v>
+      </c>
+      <c r="B22" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="D22" s="21">
+        <v>38</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G22" s="21">
+        <v>58</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
+        <v>19</v>
+      </c>
+      <c r="B23" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="D23" s="21">
+        <v>39</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G23" s="21">
+        <v>59</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
+        <v>20</v>
+      </c>
+      <c r="B24" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D24" s="21">
+        <v>40</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G24" s="21">
+        <v>60</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE274979-5883-4EC9-B875-A5D4A6D37BB1}">
   <dimension ref="A3:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/Planilhas_Física/Relatorio2.xlsx
+++ b/Planilhas_Física/Relatorio2.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\Planilhas_Física\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C971D1A-BC07-471A-B796-DAB41732DBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AE003C-8A2D-4046-ABC2-A4AA6F2A6CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B734B11A-CBEB-4ACD-A026-634FE6791D70}"/>
   </bookViews>
   <sheets>
     <sheet name="DadosAnalogico" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="3" r:id="rId2"/>
+    <sheet name="Formatação" sheetId="3" r:id="rId2"/>
     <sheet name="DadosDigitais" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>T(s)</t>
   </si>
@@ -538,13 +538,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>367903</xdr:colOff>
+      <xdr:colOff>425053</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>21034</xdr:rowOff>
     </xdr:to>
@@ -561,7 +561,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1600200" y="114300"/>
+          <a:off x="1657350" y="114300"/>
           <a:ext cx="1815703" cy="287734"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -609,6 +609,91 @@
               </a:solidFill>
             </a:rPr>
             <a:t>Dados Analógico</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>120253</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30559</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Retângulo: Cantos Arredondados 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D46D81F1-0448-4321-8A81-29A2173F455F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8058150" y="123825"/>
+          <a:ext cx="1815703" cy="287734"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="18900000" algn="bl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Dados Digital</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1">
             <a:solidFill>
@@ -1847,15 +1932,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB93E90-41DC-4A57-BF3D-E5677749569C}">
-  <dimension ref="A4:H24"/>
+  <dimension ref="A4:S64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -1874,8 +1959,26 @@
       <c r="H4" s="19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>1</v>
       </c>
@@ -1894,8 +1997,26 @@
       <c r="H5" s="12">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L5" s="10">
+        <v>1</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="O5" s="10">
+        <v>21</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="R5" s="10">
+        <v>41</v>
+      </c>
+      <c r="S5" s="13">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>2</v>
       </c>
@@ -1914,8 +2035,26 @@
       <c r="H6" s="12">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L6" s="10">
+        <v>2</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="O6" s="10">
+        <v>22</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="R6" s="10">
+        <v>42</v>
+      </c>
+      <c r="S6" s="13">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>3</v>
       </c>
@@ -1934,8 +2073,26 @@
       <c r="H7" s="12">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L7" s="10">
+        <v>3</v>
+      </c>
+      <c r="M7" s="13">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="O7" s="10">
+        <v>23</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="R7" s="10">
+        <v>43</v>
+      </c>
+      <c r="S7" s="13">
+        <v>0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>4</v>
       </c>
@@ -1954,8 +2111,26 @@
       <c r="H8" s="12">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L8" s="10">
+        <v>4</v>
+      </c>
+      <c r="M8" s="13">
+        <v>0.439</v>
+      </c>
+      <c r="O8" s="10">
+        <v>24</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="R8" s="10">
+        <v>44</v>
+      </c>
+      <c r="S8" s="10">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>5</v>
       </c>
@@ -1974,8 +2149,26 @@
       <c r="H9" s="12">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L9" s="10">
+        <v>5</v>
+      </c>
+      <c r="M9" s="13">
+        <v>0.434</v>
+      </c>
+      <c r="O9" s="10">
+        <v>25</v>
+      </c>
+      <c r="P9" s="13">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="R9" s="10">
+        <v>45</v>
+      </c>
+      <c r="S9" s="13">
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>6</v>
       </c>
@@ -1994,8 +2187,26 @@
       <c r="H10" s="12">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L10" s="10">
+        <v>6</v>
+      </c>
+      <c r="M10" s="13">
+        <v>0.436</v>
+      </c>
+      <c r="O10" s="10">
+        <v>26</v>
+      </c>
+      <c r="P10" s="13">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="R10" s="10">
+        <v>46</v>
+      </c>
+      <c r="S10" s="13">
+        <v>0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>7</v>
       </c>
@@ -2014,8 +2225,26 @@
       <c r="H11" s="12">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L11" s="10">
+        <v>7</v>
+      </c>
+      <c r="M11" s="13">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="O11" s="10">
+        <v>27</v>
+      </c>
+      <c r="P11" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="R11" s="10">
+        <v>47</v>
+      </c>
+      <c r="S11" s="13">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>8</v>
       </c>
@@ -2034,8 +2263,26 @@
       <c r="H12" s="12">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L12" s="10">
+        <v>8</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="O12" s="10">
+        <v>28</v>
+      </c>
+      <c r="P12" s="13">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="R12" s="10">
+        <v>48</v>
+      </c>
+      <c r="S12" s="13">
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>9</v>
       </c>
@@ -2054,8 +2301,26 @@
       <c r="H13" s="12">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L13" s="10">
+        <v>9</v>
+      </c>
+      <c r="M13" s="13">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="O13" s="10">
+        <v>29</v>
+      </c>
+      <c r="P13" s="13">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="R13" s="10">
+        <v>49</v>
+      </c>
+      <c r="S13" s="13">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>10</v>
       </c>
@@ -2074,8 +2339,26 @@
       <c r="H14" s="12">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L14" s="10">
+        <v>10</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="O14" s="10">
+        <v>30</v>
+      </c>
+      <c r="P14" s="13">
+        <v>0.42</v>
+      </c>
+      <c r="R14" s="10">
+        <v>50</v>
+      </c>
+      <c r="S14" s="13">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>11</v>
       </c>
@@ -2094,8 +2377,26 @@
       <c r="H15" s="12">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L15" s="10">
+        <v>11</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="O15" s="10">
+        <v>31</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="R15" s="10">
+        <v>51</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>12</v>
       </c>
@@ -2114,8 +2415,26 @@
       <c r="H16" s="12">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L16" s="10">
+        <v>12</v>
+      </c>
+      <c r="M16" s="13">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="O16" s="10">
+        <v>32</v>
+      </c>
+      <c r="P16" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="R16" s="10">
+        <v>52</v>
+      </c>
+      <c r="S16" s="13">
+        <v>0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>13</v>
       </c>
@@ -2134,8 +2453,26 @@
       <c r="H17" s="12">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="13">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="O17" s="10">
+        <v>33</v>
+      </c>
+      <c r="P17" s="13">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="R17" s="10">
+        <v>53</v>
+      </c>
+      <c r="S17" s="13">
+        <v>0.42399999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>14</v>
       </c>
@@ -2154,8 +2491,26 @@
       <c r="H18" s="12">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L18" s="10">
+        <v>14</v>
+      </c>
+      <c r="M18" s="13">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="O18" s="10">
+        <v>34</v>
+      </c>
+      <c r="P18" s="13">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="R18" s="10">
+        <v>54</v>
+      </c>
+      <c r="S18" s="13">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>15</v>
       </c>
@@ -2174,8 +2529,26 @@
       <c r="H19" s="12">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L19" s="10">
+        <v>15</v>
+      </c>
+      <c r="M19" s="13">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="O19" s="10">
+        <v>35</v>
+      </c>
+      <c r="P19" s="13">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="R19" s="10">
+        <v>55</v>
+      </c>
+      <c r="S19" s="13">
+        <v>0.41299999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>16</v>
       </c>
@@ -2194,8 +2567,26 @@
       <c r="H20" s="12">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L20" s="10">
+        <v>16</v>
+      </c>
+      <c r="M20" s="13">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="O20" s="10">
+        <v>36</v>
+      </c>
+      <c r="P20" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="R20" s="10">
+        <v>56</v>
+      </c>
+      <c r="S20" s="13">
+        <v>0.41899999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>17</v>
       </c>
@@ -2214,8 +2605,26 @@
       <c r="H21" s="12">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L21" s="10">
+        <v>17</v>
+      </c>
+      <c r="M21" s="13">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="O21" s="10">
+        <v>37</v>
+      </c>
+      <c r="P21" s="13">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="R21" s="10">
+        <v>57</v>
+      </c>
+      <c r="S21" s="13">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>18</v>
       </c>
@@ -2234,8 +2643,26 @@
       <c r="H22" s="12">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L22" s="10">
+        <v>18</v>
+      </c>
+      <c r="M22" s="13">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="O22" s="10">
+        <v>38</v>
+      </c>
+      <c r="P22" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="R22" s="10">
+        <v>58</v>
+      </c>
+      <c r="S22" s="13">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>19</v>
       </c>
@@ -2254,8 +2681,26 @@
       <c r="H23" s="12">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L23" s="10">
+        <v>19</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="O23" s="10">
+        <v>39</v>
+      </c>
+      <c r="P23" s="13">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="R23" s="10">
+        <v>59</v>
+      </c>
+      <c r="S23" s="13">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>20</v>
       </c>
@@ -2273,6 +2718,344 @@
       </c>
       <c r="H24" s="12">
         <v>0.28000000000000003</v>
+      </c>
+      <c r="L24" s="10">
+        <v>20</v>
+      </c>
+      <c r="M24" s="13">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="O24" s="10">
+        <v>40</v>
+      </c>
+      <c r="P24" s="13">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="R24" s="10">
+        <v>60</v>
+      </c>
+      <c r="S24" s="13">
+        <v>0.42599999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L25" s="10">
+        <v>21</v>
+      </c>
+      <c r="M25" s="13">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L26" s="10">
+        <v>22</v>
+      </c>
+      <c r="M26" s="13">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L27" s="10">
+        <v>23</v>
+      </c>
+      <c r="M27" s="13">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L28" s="10">
+        <v>24</v>
+      </c>
+      <c r="M28" s="13">
+        <v>0.41299999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L29" s="10">
+        <v>25</v>
+      </c>
+      <c r="M29" s="13">
+        <v>0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L30" s="10">
+        <v>26</v>
+      </c>
+      <c r="M30" s="13">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L31" s="10">
+        <v>27</v>
+      </c>
+      <c r="M31" s="10">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L32" s="10">
+        <v>28</v>
+      </c>
+      <c r="M32" s="13">
+        <v>0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L33" s="10">
+        <v>29</v>
+      </c>
+      <c r="M33" s="13">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L34" s="10">
+        <v>30</v>
+      </c>
+      <c r="M34" s="13">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="35" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L35" s="10">
+        <v>31</v>
+      </c>
+      <c r="M35" s="13">
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L36" s="10">
+        <v>32</v>
+      </c>
+      <c r="M36" s="10">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="37" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L37" s="10">
+        <v>33</v>
+      </c>
+      <c r="M37" s="13">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L38" s="10">
+        <v>34</v>
+      </c>
+      <c r="M38" s="13">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L39" s="10">
+        <v>35</v>
+      </c>
+      <c r="M39" s="13">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L40" s="10">
+        <v>36</v>
+      </c>
+      <c r="M40" s="10">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="41" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L41" s="10">
+        <v>37</v>
+      </c>
+      <c r="M41" s="13">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L42" s="10">
+        <v>38</v>
+      </c>
+      <c r="M42" s="10">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="43" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L43" s="10">
+        <v>39</v>
+      </c>
+      <c r="M43" s="13">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L44" s="10">
+        <v>40</v>
+      </c>
+      <c r="M44" s="13">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L45" s="10">
+        <v>41</v>
+      </c>
+      <c r="M45" s="13">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L46" s="10">
+        <v>42</v>
+      </c>
+      <c r="M46" s="13">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L47" s="10">
+        <v>43</v>
+      </c>
+      <c r="M47" s="13">
+        <v>0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L48" s="10">
+        <v>44</v>
+      </c>
+      <c r="M48" s="10">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="49" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L49" s="10">
+        <v>45</v>
+      </c>
+      <c r="M49" s="13">
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L50" s="10">
+        <v>46</v>
+      </c>
+      <c r="M50" s="13">
+        <v>0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L51" s="10">
+        <v>47</v>
+      </c>
+      <c r="M51" s="13">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L52" s="10">
+        <v>48</v>
+      </c>
+      <c r="M52" s="13">
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L53" s="10">
+        <v>49</v>
+      </c>
+      <c r="M53" s="13">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L54" s="10">
+        <v>50</v>
+      </c>
+      <c r="M54" s="13">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L55" s="10">
+        <v>51</v>
+      </c>
+      <c r="M55" s="13">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L56" s="10">
+        <v>52</v>
+      </c>
+      <c r="M56" s="13">
+        <v>0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L57" s="10">
+        <v>53</v>
+      </c>
+      <c r="M57" s="13">
+        <v>0.42399999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L58" s="10">
+        <v>54</v>
+      </c>
+      <c r="M58" s="13">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L59" s="10">
+        <v>55</v>
+      </c>
+      <c r="M59" s="13">
+        <v>0.41299999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L60" s="10">
+        <v>56</v>
+      </c>
+      <c r="M60" s="13">
+        <v>0.41899999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L61" s="10">
+        <v>57</v>
+      </c>
+      <c r="M61" s="13">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L62" s="10">
+        <v>58</v>
+      </c>
+      <c r="M62" s="13">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L63" s="10">
+        <v>59</v>
+      </c>
+      <c r="M63" s="13">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L64" s="10">
+        <v>60</v>
+      </c>
+      <c r="M64" s="13">
+        <v>0.42599999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2286,8 +3069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE274979-5883-4EC9-B875-A5D4A6D37BB1}">
   <dimension ref="A3:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Planilhas_Física/Relatorio2.xlsx
+++ b/Planilhas_Física/Relatorio2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\Planilhas_Física\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AE003C-8A2D-4046-ABC2-A4AA6F2A6CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DAA29D-E2D4-4B5E-AA50-910022E89476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B734B11A-CBEB-4ACD-A026-634FE6791D70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B734B11A-CBEB-4ACD-A026-634FE6791D70}"/>
   </bookViews>
   <sheets>
     <sheet name="DadosAnalogico" sheetId="1" r:id="rId1"/>
@@ -90,11 +90,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.0000000000000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
@@ -130,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +139,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -185,7 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -224,9 +229,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -236,6 +238,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -459,70 +473,6 @@
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
             <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>49609</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>39688</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>962421</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>138906</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Retângulo: Cantos Arredondados 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E5A00A4-DC95-4C7C-A8A7-F49BA5AAF585}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="49609" y="39688"/>
-          <a:ext cx="1815703" cy="287734"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
-            <a:t>Cálculos Analógico</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100"/>
         </a:p>
@@ -914,70 +864,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>43661</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Retângulo: Cantos Arredondados 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{419D7EC7-EA5F-4564-8A02-1006F51322A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="28575" y="0"/>
-          <a:ext cx="1815311" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
-            <a:t>Cálculos Digital </a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1278,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A95FD64-4CD7-4358-B999-AD72C9756F13}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B63"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,29 +1182,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
+      <c r="B3" s="12">
+        <v>0.28000000000000003</v>
       </c>
       <c r="G3" s="3"/>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11">
-        <v>0.28999999999999998</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.28000000000000003</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>1</v>
@@ -1326,47 +1224,47 @@
       <c r="E4" s="10">
         <v>0.9</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="3"/>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="12">
-        <v>0.28000000000000003</v>
+        <v>0.21</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="13">
-        <f>AVERAGE(B4:B63)</f>
+        <f>AVERAGE(B2:B61)</f>
         <v>0.29849999999999988</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="12">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="14">
-        <f>_xlfn.STDEV.S(B4:B63)</f>
+        <f>_xlfn.STDEV.S(B2:B61)</f>
         <v>4.5129756428040561E-2</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="12">
         <v>0.21</v>
@@ -1378,57 +1276,54 @@
         <f>E6/SQRT(60)</f>
         <v>5.8262265021399402E-3</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="3"/>
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="12">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="13">
         <v>9.7878989999999995</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="12">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="22">
         <f>(2*E4)/(POWER(E5,2))</f>
         <v>20.201510062877219</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="15">
-        <f>(2*E4)/(0.45*0.45)</f>
-        <v>8.8888888888888893</v>
-      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="12">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="13">
         <f>SQRT(2*E4/E9)</f>
         <v>0.29849999999999988</v>
       </c>
@@ -1436,34 +1331,34 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="12">
-        <v>0.27</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="12">
-        <v>0.28000000000000003</v>
+        <v>0.35</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="12">
-        <v>0.28000000000000003</v>
+        <v>0.34</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="12">
         <v>0.35</v>
@@ -1472,10 +1367,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="12">
-        <v>0.34</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>11</v>
@@ -1487,17 +1382,17 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="F16" s="20"/>
+        <v>0.22</v>
+      </c>
+      <c r="F16" s="19"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="12">
         <v>0.28999999999999998</v>
@@ -1506,33 +1401,33 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="12">
-        <v>0.22</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="12">
-        <v>0.28999999999999998</v>
+        <v>0.36</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="12">
-        <v>0.28999999999999998</v>
+        <v>0.36</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="15">
         <f>SQRT(E7^2 + E15^2)</f>
         <v>7.6775591990057498E-3</v>
       </c>
@@ -1540,25 +1435,25 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="12">
-        <v>0.36</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" s="12">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" s="12">
         <v>0.28999999999999998</v>
@@ -1567,25 +1462,25 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" s="12">
-        <v>0.35</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" s="12">
-        <v>0.28999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="12">
         <v>0.28999999999999998</v>
@@ -1594,52 +1489,52 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" s="12">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="12">
-        <v>0.28999999999999998</v>
+        <v>0.36</v>
       </c>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="12">
-        <v>0.22</v>
+        <v>0.35</v>
       </c>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" s="12">
-        <v>0.36</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="12">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" s="12">
         <v>0.28999999999999998</v>
@@ -1648,16 +1543,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33" s="12">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B34" s="12">
         <v>0.28999999999999998</v>
@@ -1666,7 +1561,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" s="12">
         <v>0.35</v>
@@ -1675,43 +1570,43 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" s="12">
-        <v>0.28999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B37" s="12">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" s="12">
-        <v>0.35</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B39" s="12">
-        <v>0.22</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" s="12">
         <v>0.28999999999999998</v>
@@ -1720,7 +1615,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" s="12">
         <v>0.28999999999999998</v>
@@ -1729,7 +1624,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B42" s="12">
         <v>0.28999999999999998</v>
@@ -1738,43 +1633,43 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B43" s="12">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B44" s="12">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45" s="12">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46" s="12">
-        <v>0.28000000000000003</v>
+        <v>0.35</v>
       </c>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B47" s="12">
         <v>0.28999999999999998</v>
@@ -1783,61 +1678,61 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B48" s="12">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B49" s="12">
-        <v>0.28999999999999998</v>
+        <v>0.22</v>
       </c>
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B50" s="12">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B51" s="12">
-        <v>0.22</v>
+        <v>0.35</v>
       </c>
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B52" s="12">
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B53" s="12">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B54" s="12">
         <v>0.35</v>
@@ -1846,82 +1741,66 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B55" s="12">
-        <v>0.36</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B56" s="12">
-        <v>0.35</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B57" s="12">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B58" s="12">
-        <v>0.28999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B59" s="12">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B60" s="12">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B61" s="12">
-        <v>0.35</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
-        <v>59</v>
-      </c>
-      <c r="B62" s="12">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="10">
-        <v>60</v>
-      </c>
-      <c r="B63" s="12">
-        <v>0.28000000000000003</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1932,10 +1811,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB93E90-41DC-4A57-BF3D-E5677749569C}">
-  <dimension ref="A4:S64"/>
+  <dimension ref="A4:S24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,7 +1835,7 @@
       <c r="G4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>0</v>
       </c>
       <c r="L4" s="10" t="s">
@@ -1979,37 +1858,37 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>1</v>
       </c>
       <c r="B5" s="11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>21</v>
       </c>
       <c r="E5" s="12">
         <v>0.35</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <v>41</v>
       </c>
       <c r="H5" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="21">
         <v>1</v>
       </c>
       <c r="M5" s="13">
         <v>0.41799999999999998</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="21">
         <v>21</v>
       </c>
       <c r="P5" s="13">
         <v>0.41699999999999998</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="21">
         <v>41</v>
       </c>
       <c r="S5" s="13">
@@ -2017,37 +1896,37 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>2</v>
       </c>
       <c r="B6" s="12">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>22</v>
       </c>
       <c r="E6" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>42</v>
       </c>
       <c r="H6" s="12">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="21">
         <v>2</v>
       </c>
       <c r="M6" s="13">
         <v>0.42199999999999999</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="21">
         <v>22</v>
       </c>
       <c r="P6" s="13">
         <v>0.42099999999999999</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="21">
         <v>42</v>
       </c>
       <c r="S6" s="13">
@@ -2055,37 +1934,37 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>3</v>
       </c>
       <c r="B7" s="12">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>23</v>
       </c>
       <c r="E7" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <v>43</v>
       </c>
       <c r="H7" s="12">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="21">
         <v>3</v>
       </c>
       <c r="M7" s="13">
         <v>0.42599999999999999</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="21">
         <v>23</v>
       </c>
       <c r="P7" s="13">
         <v>0.41699999999999998</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="21">
         <v>43</v>
       </c>
       <c r="S7" s="13">
@@ -2093,37 +1972,37 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>4</v>
       </c>
       <c r="B8" s="12">
         <v>0.21</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>24</v>
       </c>
       <c r="E8" s="12">
         <v>0.35</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>44</v>
       </c>
       <c r="H8" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="21">
         <v>4</v>
       </c>
       <c r="M8" s="13">
         <v>0.439</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="21">
         <v>24</v>
       </c>
       <c r="P8" s="13">
         <v>0.41299999999999998</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="21">
         <v>44</v>
       </c>
       <c r="S8" s="10">
@@ -2131,37 +2010,37 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>5</v>
       </c>
       <c r="B9" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>25</v>
       </c>
       <c r="E9" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <v>45</v>
       </c>
       <c r="H9" s="12">
         <v>0.35</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="21">
         <v>5</v>
       </c>
       <c r="M9" s="13">
         <v>0.434</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="21">
         <v>25</v>
       </c>
       <c r="P9" s="13">
         <v>0.41599999999999998</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="21">
         <v>45</v>
       </c>
       <c r="S9" s="13">
@@ -2169,37 +2048,37 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>6</v>
       </c>
       <c r="B10" s="12">
         <v>0.21</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>26</v>
       </c>
       <c r="E10" s="12">
         <v>0.22</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="20">
         <v>46</v>
       </c>
       <c r="H10" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="21">
         <v>6</v>
       </c>
       <c r="M10" s="13">
         <v>0.436</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="21">
         <v>26</v>
       </c>
       <c r="P10" s="13">
         <v>0.42099999999999999</v>
       </c>
-      <c r="R10" s="10">
+      <c r="R10" s="21">
         <v>46</v>
       </c>
       <c r="S10" s="13">
@@ -2207,37 +2086,37 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>7</v>
       </c>
       <c r="B11" s="12">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>27</v>
       </c>
       <c r="E11" s="12">
         <v>0.36</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="20">
         <v>47</v>
       </c>
       <c r="H11" s="12">
         <v>0.22</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="21">
         <v>7</v>
       </c>
       <c r="M11" s="13">
         <v>0.41399999999999998</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="21">
         <v>27</v>
       </c>
       <c r="P11" s="10">
         <v>0.42</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11" s="21">
         <v>47</v>
       </c>
       <c r="S11" s="13">
@@ -2245,37 +2124,37 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <v>8</v>
       </c>
       <c r="B12" s="12">
         <v>0.27</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>28</v>
       </c>
       <c r="E12" s="12">
         <v>0.35</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="20">
         <v>48</v>
       </c>
       <c r="H12" s="12">
         <v>0.22</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="21">
         <v>8</v>
       </c>
       <c r="M12" s="13">
         <v>0.42099999999999999</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="21">
         <v>28</v>
       </c>
       <c r="P12" s="13">
         <v>0.41599999999999998</v>
       </c>
-      <c r="R12" s="10">
+      <c r="R12" s="21">
         <v>48</v>
       </c>
       <c r="S12" s="13">
@@ -2283,37 +2162,37 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>9</v>
       </c>
       <c r="B13" s="12">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <v>29</v>
       </c>
       <c r="E13" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="20">
         <v>49</v>
       </c>
       <c r="H13" s="12">
         <v>0.23</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="21">
         <v>9</v>
       </c>
       <c r="M13" s="13">
         <v>0.42499999999999999</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="21">
         <v>29</v>
       </c>
       <c r="P13" s="13">
         <v>0.42199999999999999</v>
       </c>
-      <c r="R13" s="10">
+      <c r="R13" s="21">
         <v>49</v>
       </c>
       <c r="S13" s="13">
@@ -2321,37 +2200,37 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <v>10</v>
       </c>
       <c r="B14" s="12">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>30</v>
       </c>
       <c r="E14" s="12">
         <v>0.36</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="20">
         <v>50</v>
       </c>
       <c r="H14" s="12">
         <v>0.35</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="21">
         <v>10</v>
       </c>
       <c r="M14" s="13">
         <v>0.41499999999999998</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="21">
         <v>30</v>
       </c>
       <c r="P14" s="13">
         <v>0.42</v>
       </c>
-      <c r="R14" s="10">
+      <c r="R14" s="21">
         <v>50</v>
       </c>
       <c r="S14" s="13">
@@ -2359,37 +2238,37 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <v>11</v>
       </c>
       <c r="B15" s="12">
         <v>0.35</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="20">
         <v>31</v>
       </c>
       <c r="E15" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="20">
         <v>51</v>
       </c>
       <c r="H15" s="12">
         <v>0.35</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="21">
         <v>11</v>
       </c>
       <c r="M15" s="13">
         <v>0.42399999999999999</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="21">
         <v>31</v>
       </c>
       <c r="P15" s="13">
         <v>0.42699999999999999</v>
       </c>
-      <c r="R15" s="10">
+      <c r="R15" s="21">
         <v>51</v>
       </c>
       <c r="S15" s="13">
@@ -2397,37 +2276,37 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
+      <c r="A16" s="20">
         <v>12</v>
       </c>
       <c r="B16" s="12">
         <v>0.34</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="20">
         <v>32</v>
       </c>
       <c r="E16" s="12">
         <v>0.35</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="20">
         <v>52</v>
       </c>
       <c r="H16" s="12">
         <v>0.36</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="21">
         <v>12</v>
       </c>
       <c r="M16" s="13">
         <v>0.41399999999999998</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="21">
         <v>32</v>
       </c>
       <c r="P16" s="10">
         <v>0.42</v>
       </c>
-      <c r="R16" s="10">
+      <c r="R16" s="21">
         <v>52</v>
       </c>
       <c r="S16" s="13">
@@ -2435,37 +2314,37 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
+      <c r="A17" s="20">
         <v>13</v>
       </c>
       <c r="B17" s="12">
         <v>0.35</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="20">
         <v>33</v>
       </c>
       <c r="E17" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="20">
         <v>53</v>
       </c>
       <c r="H17" s="12">
         <v>0.35</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="21">
         <v>13</v>
       </c>
       <c r="M17" s="13">
         <v>0.41799999999999998</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="21">
         <v>33</v>
       </c>
       <c r="P17" s="13">
         <v>0.42199999999999999</v>
       </c>
-      <c r="R17" s="10">
+      <c r="R17" s="21">
         <v>53</v>
       </c>
       <c r="S17" s="13">
@@ -2473,37 +2352,37 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
         <v>14</v>
       </c>
       <c r="B18" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="20">
         <v>34</v>
       </c>
       <c r="E18" s="12">
         <v>0.35</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="20">
         <v>54</v>
       </c>
       <c r="H18" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="21">
         <v>14</v>
       </c>
       <c r="M18" s="13">
         <v>0.42299999999999999</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="21">
         <v>34</v>
       </c>
       <c r="P18" s="13">
         <v>0.42199999999999999</v>
       </c>
-      <c r="R18" s="10">
+      <c r="R18" s="21">
         <v>54</v>
       </c>
       <c r="S18" s="13">
@@ -2511,37 +2390,37 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="21">
+      <c r="A19" s="20">
         <v>15</v>
       </c>
       <c r="B19" s="12">
         <v>0.22</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="20">
         <v>35</v>
       </c>
       <c r="E19" s="12">
         <v>0.35</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <v>55</v>
       </c>
       <c r="H19" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="21">
         <v>15</v>
       </c>
       <c r="M19" s="13">
         <v>0.42199999999999999</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="21">
         <v>35</v>
       </c>
       <c r="P19" s="13">
         <v>0.42099999999999999</v>
       </c>
-      <c r="R19" s="10">
+      <c r="R19" s="21">
         <v>55</v>
       </c>
       <c r="S19" s="13">
@@ -2549,37 +2428,37 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
+      <c r="A20" s="20">
         <v>16</v>
       </c>
       <c r="B20" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="20">
         <v>36</v>
       </c>
       <c r="E20" s="12">
         <v>0.22</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="20">
         <v>56</v>
       </c>
       <c r="H20" s="12">
         <v>0.3</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="21">
         <v>16</v>
       </c>
       <c r="M20" s="13">
         <v>0.42299999999999999</v>
       </c>
-      <c r="O20" s="10">
+      <c r="O20" s="21">
         <v>36</v>
       </c>
       <c r="P20" s="10">
         <v>0.42</v>
       </c>
-      <c r="R20" s="10">
+      <c r="R20" s="21">
         <v>56</v>
       </c>
       <c r="S20" s="13">
@@ -2587,37 +2466,37 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
+      <c r="A21" s="20">
         <v>17</v>
       </c>
       <c r="B21" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="20">
         <v>37</v>
       </c>
       <c r="E21" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="20">
         <v>57</v>
       </c>
       <c r="H21" s="12">
         <v>0.35</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="21">
         <v>17</v>
       </c>
       <c r="M21" s="13">
         <v>0.42299999999999999</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="21">
         <v>37</v>
       </c>
       <c r="P21" s="13">
         <v>0.41799999999999998</v>
       </c>
-      <c r="R21" s="10">
+      <c r="R21" s="21">
         <v>57</v>
       </c>
       <c r="S21" s="13">
@@ -2625,37 +2504,37 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
+      <c r="A22" s="20">
         <v>18</v>
       </c>
       <c r="B22" s="12">
         <v>0.36</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="20">
         <v>38</v>
       </c>
       <c r="E22" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="20">
         <v>58</v>
       </c>
       <c r="H22" s="12">
         <v>0.35</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="21">
         <v>18</v>
       </c>
       <c r="M22" s="13">
         <v>0.41799999999999998</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22" s="21">
         <v>38</v>
       </c>
       <c r="P22" s="10">
         <v>0.42</v>
       </c>
-      <c r="R22" s="10">
+      <c r="R22" s="21">
         <v>58</v>
       </c>
       <c r="S22" s="13">
@@ -2663,37 +2542,37 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
+      <c r="A23" s="20">
         <v>19</v>
       </c>
       <c r="B23" s="12">
         <v>0.36</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="20">
         <v>39</v>
       </c>
       <c r="E23" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="20">
         <v>59</v>
       </c>
       <c r="H23" s="12">
         <v>0.22</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="21">
         <v>19</v>
       </c>
       <c r="M23" s="13">
         <v>0.42299999999999999</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="21">
         <v>39</v>
       </c>
       <c r="P23" s="13">
         <v>0.42099999999999999</v>
       </c>
-      <c r="R23" s="10">
+      <c r="R23" s="21">
         <v>59</v>
       </c>
       <c r="S23" s="13">
@@ -2701,360 +2580,40 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
+      <c r="A24" s="20">
         <v>20</v>
       </c>
       <c r="B24" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="20">
         <v>40</v>
       </c>
       <c r="E24" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="20">
         <v>60</v>
       </c>
       <c r="H24" s="12">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="21">
         <v>20</v>
       </c>
       <c r="M24" s="13">
         <v>0.41599999999999998</v>
       </c>
-      <c r="O24" s="10">
+      <c r="O24" s="21">
         <v>40</v>
       </c>
       <c r="P24" s="13">
         <v>0.42099999999999999</v>
       </c>
-      <c r="R24" s="10">
+      <c r="R24" s="21">
         <v>60</v>
       </c>
       <c r="S24" s="13">
-        <v>0.42599999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L25" s="10">
-        <v>21</v>
-      </c>
-      <c r="M25" s="13">
-        <v>0.41699999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L26" s="10">
-        <v>22</v>
-      </c>
-      <c r="M26" s="13">
-        <v>0.42099999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L27" s="10">
-        <v>23</v>
-      </c>
-      <c r="M27" s="13">
-        <v>0.41699999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L28" s="10">
-        <v>24</v>
-      </c>
-      <c r="M28" s="13">
-        <v>0.41299999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L29" s="10">
-        <v>25</v>
-      </c>
-      <c r="M29" s="13">
-        <v>0.41599999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L30" s="10">
-        <v>26</v>
-      </c>
-      <c r="M30" s="13">
-        <v>0.42099999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L31" s="10">
-        <v>27</v>
-      </c>
-      <c r="M31" s="10">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L32" s="10">
-        <v>28</v>
-      </c>
-      <c r="M32" s="13">
-        <v>0.41599999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L33" s="10">
-        <v>29</v>
-      </c>
-      <c r="M33" s="13">
-        <v>0.42199999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L34" s="10">
-        <v>30</v>
-      </c>
-      <c r="M34" s="13">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="35" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L35" s="10">
-        <v>31</v>
-      </c>
-      <c r="M35" s="13">
-        <v>0.42699999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L36" s="10">
-        <v>32</v>
-      </c>
-      <c r="M36" s="10">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="37" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L37" s="10">
-        <v>33</v>
-      </c>
-      <c r="M37" s="13">
-        <v>0.42199999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L38" s="10">
-        <v>34</v>
-      </c>
-      <c r="M38" s="13">
-        <v>0.42199999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L39" s="10">
-        <v>35</v>
-      </c>
-      <c r="M39" s="13">
-        <v>0.42099999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L40" s="10">
-        <v>36</v>
-      </c>
-      <c r="M40" s="10">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="41" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L41" s="10">
-        <v>37</v>
-      </c>
-      <c r="M41" s="13">
-        <v>0.41799999999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L42" s="10">
-        <v>38</v>
-      </c>
-      <c r="M42" s="10">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="43" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L43" s="10">
-        <v>39</v>
-      </c>
-      <c r="M43" s="13">
-        <v>0.42099999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L44" s="10">
-        <v>40</v>
-      </c>
-      <c r="M44" s="13">
-        <v>0.42099999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L45" s="10">
-        <v>41</v>
-      </c>
-      <c r="M45" s="13">
-        <v>0.42199999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L46" s="10">
-        <v>42</v>
-      </c>
-      <c r="M46" s="13">
-        <v>0.42199999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L47" s="10">
-        <v>43</v>
-      </c>
-      <c r="M47" s="13">
-        <v>0.42299999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L48" s="10">
-        <v>44</v>
-      </c>
-      <c r="M48" s="10">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="49" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L49" s="10">
-        <v>45</v>
-      </c>
-      <c r="M49" s="13">
-        <v>0.42699999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L50" s="10">
-        <v>46</v>
-      </c>
-      <c r="M50" s="13">
-        <v>0.42299999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L51" s="10">
-        <v>47</v>
-      </c>
-      <c r="M51" s="13">
-        <v>0.41799999999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L52" s="10">
-        <v>48</v>
-      </c>
-      <c r="M52" s="13">
-        <v>0.42699999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L53" s="10">
-        <v>49</v>
-      </c>
-      <c r="M53" s="13">
-        <v>0.42199999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L54" s="10">
-        <v>50</v>
-      </c>
-      <c r="M54" s="13">
-        <v>0.42199999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L55" s="10">
-        <v>51</v>
-      </c>
-      <c r="M55" s="13">
-        <v>0.42099999999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L56" s="10">
-        <v>52</v>
-      </c>
-      <c r="M56" s="13">
-        <v>0.41599999999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L57" s="10">
-        <v>53</v>
-      </c>
-      <c r="M57" s="13">
-        <v>0.42399999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L58" s="10">
-        <v>54</v>
-      </c>
-      <c r="M58" s="13">
-        <v>0.42099999999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L59" s="10">
-        <v>55</v>
-      </c>
-      <c r="M59" s="13">
-        <v>0.41299999999999998</v>
-      </c>
-    </row>
-    <row r="60" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L60" s="10">
-        <v>56</v>
-      </c>
-      <c r="M60" s="13">
-        <v>0.41899999999999998</v>
-      </c>
-    </row>
-    <row r="61" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L61" s="10">
-        <v>57</v>
-      </c>
-      <c r="M61" s="13">
-        <v>0.41799999999999998</v>
-      </c>
-    </row>
-    <row r="62" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L62" s="10">
-        <v>58</v>
-      </c>
-      <c r="M62" s="13">
-        <v>0.42199999999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L63" s="10">
-        <v>59</v>
-      </c>
-      <c r="M63" s="13">
-        <v>0.41499999999999998</v>
-      </c>
-    </row>
-    <row r="64" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L64" s="10">
-        <v>60</v>
-      </c>
-      <c r="M64" s="13">
         <v>0.42599999999999999</v>
       </c>
     </row>
@@ -3067,10 +2626,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE274979-5883-4EC9-B875-A5D4A6D37BB1}">
-  <dimension ref="A3:F63"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3081,147 +2640,163 @@
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>0</v>
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="13">
-        <v>0.41799999999999998</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="13">
         <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="13">
-        <v>0.42199999999999999</v>
+        <v>0.439</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="13">
-        <f>AVERAGE(B4:B63)</f>
+        <f>AVERAGE(B2:B61)</f>
         <v>0.42116666666666658</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="13">
-        <v>0.42599999999999999</v>
+        <v>0.434</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="15">
-        <f>_xlfn.STDEV.S(B4:B63)</f>
+        <f>_xlfn.STDEV.S(B2:B61)</f>
         <v>4.934028046977605E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="13">
-        <v>0.439</v>
+        <v>0.436</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <f>F6/SQRT(60)</f>
         <v>6.3698028185548566E-4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="13">
-        <v>0.434</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="13">
         <v>9.7878989999999995</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="13">
-        <v>0.436</v>
-      </c>
-      <c r="E9" s="19" t="s">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="22">
         <f>2*F4/F5^2</f>
         <v>10.147627624034786</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="13">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="E10" s="19" t="s">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="13">
         <f>SQRT(2*F4/F9)</f>
         <v>0.42116666666666658</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="13">
-        <v>0.42099999999999999</v>
+        <v>0.41499999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="13">
-        <v>0.42499999999999999</v>
+        <v>0.42399999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="13">
-        <v>0.41499999999999998</v>
+        <v>0.41399999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="13">
-        <v>0.42399999999999999</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>14</v>
@@ -3232,23 +2807,23 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="13">
-        <v>0.41399999999999998</v>
+        <v>0.42299999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="13">
-        <v>0.41799999999999998</v>
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="13">
         <v>0.42299999999999999</v>
@@ -3256,30 +2831,30 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="13">
-        <v>0.42199999999999999</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="16">
         <f>SQRT(F7^2 +F14^2)</f>
         <v>8.0978014267620436E-4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="13">
-        <v>0.42299999999999999</v>
+        <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="13">
         <v>0.42299999999999999</v>
@@ -3287,31 +2862,31 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="13">
-        <v>0.41799999999999998</v>
+        <v>0.41599999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" s="13">
-        <v>0.42299999999999999</v>
+        <v>0.41699999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" s="13">
-        <v>0.41599999999999998</v>
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" s="13">
         <v>0.41699999999999998</v>
@@ -3319,119 +2894,119 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" s="13">
-        <v>0.42099999999999999</v>
+        <v>0.41299999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="13">
-        <v>0.41699999999999998</v>
+        <v>0.41599999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" s="13">
-        <v>0.41299999999999998</v>
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>25</v>
-      </c>
-      <c r="B28" s="13">
-        <v>0.41599999999999998</v>
+        <v>27</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0.42</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="13">
-        <v>0.42099999999999999</v>
+        <v>0.41599999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
-        <v>27</v>
-      </c>
-      <c r="B30" s="10">
-        <v>0.42</v>
+        <v>29</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="13">
-        <v>0.41599999999999998</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" s="13">
-        <v>0.42199999999999999</v>
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
-        <v>30</v>
-      </c>
-      <c r="B33" s="13">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10">
         <v>0.42</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B34" s="13">
-        <v>0.42699999999999999</v>
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
-        <v>32</v>
-      </c>
-      <c r="B35" s="10">
-        <v>0.42</v>
+        <v>34</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" s="13">
-        <v>0.42199999999999999</v>
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
-        <v>34</v>
-      </c>
-      <c r="B37" s="13">
-        <v>0.42199999999999999</v>
+        <v>36</v>
+      </c>
+      <c r="B37" s="10">
+        <v>0.42</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" s="13">
-        <v>0.42099999999999999</v>
+        <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B39" s="10">
         <v>0.42</v>
@@ -3439,193 +3014,177 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" s="13">
-        <v>0.41799999999999998</v>
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
-        <v>38</v>
-      </c>
-      <c r="B41" s="10">
-        <v>0.42</v>
+        <v>40</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B42" s="13">
-        <v>0.42099999999999999</v>
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B43" s="13">
-        <v>0.42099999999999999</v>
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B44" s="13">
-        <v>0.42199999999999999</v>
+        <v>0.42299999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
-        <v>42</v>
-      </c>
-      <c r="B45" s="13">
-        <v>0.42199999999999999</v>
+        <v>44</v>
+      </c>
+      <c r="B45" s="10">
+        <v>0.42</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46" s="13">
-        <v>0.42299999999999999</v>
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
-        <v>44</v>
-      </c>
-      <c r="B47" s="10">
-        <v>0.42</v>
+        <v>46</v>
+      </c>
+      <c r="B47" s="13">
+        <v>0.42299999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B48" s="13">
-        <v>0.42699999999999999</v>
+        <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B49" s="13">
-        <v>0.42299999999999999</v>
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B50" s="13">
-        <v>0.41799999999999998</v>
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B51" s="13">
-        <v>0.42699999999999999</v>
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B52" s="13">
-        <v>0.42199999999999999</v>
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B53" s="13">
-        <v>0.42199999999999999</v>
+        <v>0.41599999999999998</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B54" s="13">
-        <v>0.42099999999999999</v>
+        <v>0.42399999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B55" s="13">
-        <v>0.41599999999999998</v>
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B56" s="13">
-        <v>0.42399999999999999</v>
+        <v>0.41299999999999998</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B57" s="13">
-        <v>0.42099999999999999</v>
+        <v>0.41899999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B58" s="13">
-        <v>0.41299999999999998</v>
+        <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B59" s="13">
-        <v>0.41899999999999998</v>
+        <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B60" s="13">
-        <v>0.41799999999999998</v>
+        <v>0.41499999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B61" s="13">
-        <v>0.42199999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
-        <v>59</v>
-      </c>
-      <c r="B62" s="13">
-        <v>0.41499999999999998</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="10">
-        <v>60</v>
-      </c>
-      <c r="B63" s="13">
         <v>0.42599999999999999</v>
       </c>
     </row>

--- a/Planilhas_Física/Relatorio2.xlsx
+++ b/Planilhas_Física/Relatorio2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\Planilhas_Física\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DAA29D-E2D4-4B5E-AA50-910022E89476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E1086F-1C21-48D1-A7A1-9331E3C9D791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B734B11A-CBEB-4ACD-A026-634FE6791D70}"/>
   </bookViews>
   <sheets>
     <sheet name="DadosAnalogico" sheetId="1" r:id="rId1"/>
-    <sheet name="Formatação" sheetId="3" r:id="rId2"/>
-    <sheet name="DadosDigitais" sheetId="2" r:id="rId3"/>
+    <sheet name="DadosDigitais" sheetId="2" r:id="rId2"/>
+    <sheet name="Formatação" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>T(s)</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Medições</t>
   </si>
   <si>
-    <t>Valor esperado(g)</t>
-  </si>
-  <si>
     <t>Média do T(s)</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
   </si>
   <si>
     <t>Média T(s)</t>
-  </si>
-  <si>
-    <t>Gravidade</t>
   </si>
   <si>
     <t>Tempo Médio(s)</t>
@@ -85,6 +79,15 @@
   <si>
     <t>Erro Total de T(s)</t>
   </si>
+  <si>
+    <t>Δh(m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Gravidade(m/s²)                                                                         </t>
+  </si>
+  <si>
+    <t>Valor esperado(m/s²)</t>
+  </si>
 </sst>
 </file>
 
@@ -94,10 +97,10 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,8 +131,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,12 +156,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,7 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -203,8 +214,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -229,7 +240,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -237,12 +248,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -252,6 +257,22 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -275,15 +296,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>694528</xdr:colOff>
+      <xdr:colOff>664764</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>9924</xdr:rowOff>
+      <xdr:rowOff>69455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1031874</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>168674</xdr:rowOff>
+      <xdr:colOff>1002110</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>39690</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -298,8 +319,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3879450" y="2083596"/>
-          <a:ext cx="1875237" cy="347266"/>
+          <a:off x="3244452" y="2143127"/>
+          <a:ext cx="1875236" cy="347266"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -480,30 +501,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>271461</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>92871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>425053</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>21034</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63106</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Retângulo: Cantos Arredondados 1">
+        <xdr:cNvPr id="6" name="Retângulo: Cantos Arredondados 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3358F40E-176E-47AB-8A00-4105AC2636B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6253E39-6797-41EB-905A-9A0295777302}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -511,25 +527,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1657350" y="114300"/>
-          <a:ext cx="1815703" cy="287734"/>
+          <a:off x="6710758" y="2166543"/>
+          <a:ext cx="1871664" cy="347266"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="18900000" algn="bl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -553,103 +556,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Dados Analógico</a:t>
+            <a:rPr lang="pt-BR" sz="1200"/>
+            <a:t>Incerteza</a:t>
           </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>120253</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>30559</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Retângulo: Cantos Arredondados 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D46D81F1-0448-4321-8A81-29A2173F455F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8058150" y="123825"/>
-          <a:ext cx="1815703" cy="287734"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="18900000" algn="bl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Dados Digital</a:t>
+            <a:rPr lang="pt-BR" sz="1200" baseline="0"/>
+            <a:t> em h</a:t>
           </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -658,7 +572,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -859,6 +773,274 @@
             <a:t>Erro total t </a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>425053</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>21034</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo: Cantos Arredondados 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3358F40E-176E-47AB-8A00-4105AC2636B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1657350" y="114300"/>
+          <a:ext cx="1815703" cy="287734"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="18900000" algn="bl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Dados Analógico</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>120253</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30559</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Retângulo: Cantos Arredondados 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D46D81F1-0448-4321-8A81-29A2173F455F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8058150" y="123825"/>
+          <a:ext cx="1815703" cy="287734"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="18900000" algn="bl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Dados Digital</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>139109</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>126012</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30559</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Retângulo: Cantos Arredondados 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96587553-4717-4E94-91ED-839CFD46EFB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8058150" y="123825"/>
+          <a:ext cx="1814374" cy="283304"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="18900000" algn="bl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Dados Digital</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1167,7 +1349,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,6 +1359,8 @@
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1221,7 +1405,7 @@
       <c r="D4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="13">
         <v>0.9</v>
       </c>
       <c r="F4" s="17"/>
@@ -1236,7 +1420,7 @@
         <v>0.21</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="13">
         <f>AVERAGE(B2:B61)</f>
@@ -1253,7 +1437,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="14">
         <f>_xlfn.STDEV.S(B2:B61)</f>
@@ -1270,7 +1454,7 @@
         <v>0.21</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="15">
         <f>E6/SQRT(60)</f>
@@ -1288,7 +1472,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E8" s="13">
         <v>9.7878989999999995</v>
@@ -1303,15 +1487,15 @@
       <c r="B9" s="12">
         <v>0.27</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="22">
+      <c r="D9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="20">
         <f>(2*E4)/(POWER(E5,2))</f>
         <v>20.201510062877219</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
@@ -1321,7 +1505,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="13">
         <f>SQRT(2*E4/E9)</f>
@@ -1373,12 +1557,17 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -1425,7 +1614,7 @@
         <v>0.36</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E20" s="15">
         <f>SQRT(E7^2 + E15^2)</f>
@@ -1810,821 +1999,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB93E90-41DC-4A57-BF3D-E5677749569C}">
-  <dimension ref="A4:S24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>1</v>
-      </c>
-      <c r="B5" s="11">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D5" s="20">
-        <v>21</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="G5" s="20">
-        <v>41</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L5" s="21">
-        <v>1</v>
-      </c>
-      <c r="M5" s="13">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="O5" s="21">
-        <v>21</v>
-      </c>
-      <c r="P5" s="13">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="R5" s="21">
-        <v>41</v>
-      </c>
-      <c r="S5" s="13">
-        <v>0.42199999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
-        <v>2</v>
-      </c>
-      <c r="B6" s="12">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D6" s="20">
-        <v>22</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G6" s="20">
-        <v>42</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="L6" s="21">
-        <v>2</v>
-      </c>
-      <c r="M6" s="13">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="O6" s="21">
-        <v>22</v>
-      </c>
-      <c r="P6" s="13">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="R6" s="21">
-        <v>42</v>
-      </c>
-      <c r="S6" s="13">
-        <v>0.42199999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
-        <v>3</v>
-      </c>
-      <c r="B7" s="12">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D7" s="20">
-        <v>23</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G7" s="20">
-        <v>43</v>
-      </c>
-      <c r="H7" s="12">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="L7" s="21">
-        <v>3</v>
-      </c>
-      <c r="M7" s="13">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="O7" s="21">
-        <v>23</v>
-      </c>
-      <c r="P7" s="13">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="R7" s="21">
-        <v>43</v>
-      </c>
-      <c r="S7" s="13">
-        <v>0.42299999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
-        <v>4</v>
-      </c>
-      <c r="B8" s="12">
-        <v>0.21</v>
-      </c>
-      <c r="D8" s="20">
-        <v>24</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="G8" s="20">
-        <v>44</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L8" s="21">
-        <v>4</v>
-      </c>
-      <c r="M8" s="13">
-        <v>0.439</v>
-      </c>
-      <c r="O8" s="21">
-        <v>24</v>
-      </c>
-      <c r="P8" s="13">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="R8" s="21">
-        <v>44</v>
-      </c>
-      <c r="S8" s="10">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
-        <v>5</v>
-      </c>
-      <c r="B9" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D9" s="20">
-        <v>25</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G9" s="20">
-        <v>45</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="L9" s="21">
-        <v>5</v>
-      </c>
-      <c r="M9" s="13">
-        <v>0.434</v>
-      </c>
-      <c r="O9" s="21">
-        <v>25</v>
-      </c>
-      <c r="P9" s="13">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="R9" s="21">
-        <v>45</v>
-      </c>
-      <c r="S9" s="13">
-        <v>0.42699999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
-        <v>6</v>
-      </c>
-      <c r="B10" s="12">
-        <v>0.21</v>
-      </c>
-      <c r="D10" s="20">
-        <v>26</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0.22</v>
-      </c>
-      <c r="G10" s="20">
-        <v>46</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L10" s="21">
-        <v>6</v>
-      </c>
-      <c r="M10" s="13">
-        <v>0.436</v>
-      </c>
-      <c r="O10" s="21">
-        <v>26</v>
-      </c>
-      <c r="P10" s="13">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="R10" s="21">
-        <v>46</v>
-      </c>
-      <c r="S10" s="13">
-        <v>0.42299999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
-        <v>7</v>
-      </c>
-      <c r="B11" s="12">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D11" s="20">
-        <v>27</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0.36</v>
-      </c>
-      <c r="G11" s="20">
-        <v>47</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0.22</v>
-      </c>
-      <c r="L11" s="21">
-        <v>7</v>
-      </c>
-      <c r="M11" s="13">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="O11" s="21">
-        <v>27</v>
-      </c>
-      <c r="P11" s="10">
-        <v>0.42</v>
-      </c>
-      <c r="R11" s="21">
-        <v>47</v>
-      </c>
-      <c r="S11" s="13">
-        <v>0.41799999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
-        <v>8</v>
-      </c>
-      <c r="B12" s="12">
-        <v>0.27</v>
-      </c>
-      <c r="D12" s="20">
-        <v>28</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="G12" s="20">
-        <v>48</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0.22</v>
-      </c>
-      <c r="L12" s="21">
-        <v>8</v>
-      </c>
-      <c r="M12" s="13">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="O12" s="21">
-        <v>28</v>
-      </c>
-      <c r="P12" s="13">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="R12" s="21">
-        <v>48</v>
-      </c>
-      <c r="S12" s="13">
-        <v>0.42699999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
-        <v>9</v>
-      </c>
-      <c r="B13" s="12">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D13" s="20">
-        <v>29</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G13" s="20">
-        <v>49</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0.23</v>
-      </c>
-      <c r="L13" s="21">
-        <v>9</v>
-      </c>
-      <c r="M13" s="13">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="O13" s="21">
-        <v>29</v>
-      </c>
-      <c r="P13" s="13">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="R13" s="21">
-        <v>49</v>
-      </c>
-      <c r="S13" s="13">
-        <v>0.42199999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
-        <v>10</v>
-      </c>
-      <c r="B14" s="12">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D14" s="20">
-        <v>30</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0.36</v>
-      </c>
-      <c r="G14" s="20">
-        <v>50</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="L14" s="21">
-        <v>10</v>
-      </c>
-      <c r="M14" s="13">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="O14" s="21">
-        <v>30</v>
-      </c>
-      <c r="P14" s="13">
-        <v>0.42</v>
-      </c>
-      <c r="R14" s="21">
-        <v>50</v>
-      </c>
-      <c r="S14" s="13">
-        <v>0.42199999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
-        <v>11</v>
-      </c>
-      <c r="B15" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="D15" s="20">
-        <v>31</v>
-      </c>
-      <c r="E15" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G15" s="20">
-        <v>51</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="L15" s="21">
-        <v>11</v>
-      </c>
-      <c r="M15" s="13">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="O15" s="21">
-        <v>31</v>
-      </c>
-      <c r="P15" s="13">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="R15" s="21">
-        <v>51</v>
-      </c>
-      <c r="S15" s="13">
-        <v>0.42099999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
-        <v>12</v>
-      </c>
-      <c r="B16" s="12">
-        <v>0.34</v>
-      </c>
-      <c r="D16" s="20">
-        <v>32</v>
-      </c>
-      <c r="E16" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="G16" s="20">
-        <v>52</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0.36</v>
-      </c>
-      <c r="L16" s="21">
-        <v>12</v>
-      </c>
-      <c r="M16" s="13">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="O16" s="21">
-        <v>32</v>
-      </c>
-      <c r="P16" s="10">
-        <v>0.42</v>
-      </c>
-      <c r="R16" s="21">
-        <v>52</v>
-      </c>
-      <c r="S16" s="13">
-        <v>0.41599999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
-        <v>13</v>
-      </c>
-      <c r="B17" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="D17" s="20">
-        <v>33</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G17" s="20">
-        <v>53</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="L17" s="21">
-        <v>13</v>
-      </c>
-      <c r="M17" s="13">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="O17" s="21">
-        <v>33</v>
-      </c>
-      <c r="P17" s="13">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="R17" s="21">
-        <v>53</v>
-      </c>
-      <c r="S17" s="13">
-        <v>0.42399999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
-        <v>14</v>
-      </c>
-      <c r="B18" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D18" s="20">
-        <v>34</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="G18" s="20">
-        <v>54</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L18" s="21">
-        <v>14</v>
-      </c>
-      <c r="M18" s="13">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="O18" s="21">
-        <v>34</v>
-      </c>
-      <c r="P18" s="13">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="R18" s="21">
-        <v>54</v>
-      </c>
-      <c r="S18" s="13">
-        <v>0.42099999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
-        <v>15</v>
-      </c>
-      <c r="B19" s="12">
-        <v>0.22</v>
-      </c>
-      <c r="D19" s="20">
-        <v>35</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="G19" s="20">
-        <v>55</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L19" s="21">
-        <v>15</v>
-      </c>
-      <c r="M19" s="13">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="O19" s="21">
-        <v>35</v>
-      </c>
-      <c r="P19" s="13">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="R19" s="21">
-        <v>55</v>
-      </c>
-      <c r="S19" s="13">
-        <v>0.41299999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
-        <v>16</v>
-      </c>
-      <c r="B20" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D20" s="20">
-        <v>36</v>
-      </c>
-      <c r="E20" s="12">
-        <v>0.22</v>
-      </c>
-      <c r="G20" s="20">
-        <v>56</v>
-      </c>
-      <c r="H20" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="L20" s="21">
-        <v>16</v>
-      </c>
-      <c r="M20" s="13">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="O20" s="21">
-        <v>36</v>
-      </c>
-      <c r="P20" s="10">
-        <v>0.42</v>
-      </c>
-      <c r="R20" s="21">
-        <v>56</v>
-      </c>
-      <c r="S20" s="13">
-        <v>0.41899999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
-        <v>17</v>
-      </c>
-      <c r="B21" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D21" s="20">
-        <v>37</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G21" s="20">
-        <v>57</v>
-      </c>
-      <c r="H21" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="L21" s="21">
-        <v>17</v>
-      </c>
-      <c r="M21" s="13">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="O21" s="21">
-        <v>37</v>
-      </c>
-      <c r="P21" s="13">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="R21" s="21">
-        <v>57</v>
-      </c>
-      <c r="S21" s="13">
-        <v>0.41799999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
-        <v>18</v>
-      </c>
-      <c r="B22" s="12">
-        <v>0.36</v>
-      </c>
-      <c r="D22" s="20">
-        <v>38</v>
-      </c>
-      <c r="E22" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G22" s="20">
-        <v>58</v>
-      </c>
-      <c r="H22" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="L22" s="21">
-        <v>18</v>
-      </c>
-      <c r="M22" s="13">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="O22" s="21">
-        <v>38</v>
-      </c>
-      <c r="P22" s="10">
-        <v>0.42</v>
-      </c>
-      <c r="R22" s="21">
-        <v>58</v>
-      </c>
-      <c r="S22" s="13">
-        <v>0.42199999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
-        <v>19</v>
-      </c>
-      <c r="B23" s="12">
-        <v>0.36</v>
-      </c>
-      <c r="D23" s="20">
-        <v>39</v>
-      </c>
-      <c r="E23" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G23" s="20">
-        <v>59</v>
-      </c>
-      <c r="H23" s="12">
-        <v>0.22</v>
-      </c>
-      <c r="L23" s="21">
-        <v>19</v>
-      </c>
-      <c r="M23" s="13">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="O23" s="21">
-        <v>39</v>
-      </c>
-      <c r="P23" s="13">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="R23" s="21">
-        <v>59</v>
-      </c>
-      <c r="S23" s="13">
-        <v>0.41499999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
-        <v>20</v>
-      </c>
-      <c r="B24" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D24" s="20">
-        <v>40</v>
-      </c>
-      <c r="E24" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G24" s="20">
-        <v>60</v>
-      </c>
-      <c r="H24" s="12">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="L24" s="21">
-        <v>20</v>
-      </c>
-      <c r="M24" s="13">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="O24" s="21">
-        <v>40</v>
-      </c>
-      <c r="P24" s="13">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="R24" s="21">
-        <v>60</v>
-      </c>
-      <c r="S24" s="13">
-        <v>0.42599999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE274979-5883-4EC9-B875-A5D4A6D37BB1}">
   <dimension ref="A1:F61"/>
   <sheetViews>
@@ -2686,7 +2060,7 @@
         <v>0.439</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="13">
         <f>AVERAGE(B2:B61)</f>
@@ -2701,7 +2075,7 @@
         <v>0.434</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="15">
         <f>_xlfn.STDEV.S(B2:B61)</f>
@@ -2716,7 +2090,7 @@
         <v>0.436</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" s="16">
         <f>F6/SQRT(60)</f>
@@ -2731,7 +2105,7 @@
         <v>0.41399999999999998</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" s="13">
         <v>9.7878989999999995</v>
@@ -2745,9 +2119,9 @@
         <v>0.42099999999999999</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="22">
+        <v>11</v>
+      </c>
+      <c r="F9" s="20">
         <f>2*F4/F5^2</f>
         <v>10.147627624034786</v>
       </c>
@@ -2760,7 +2134,7 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F10" s="13">
         <f>SQRT(2*F4/F9)</f>
@@ -2799,7 +2173,7 @@
         <v>0.41799999999999998</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F14" s="10">
         <v>5.0000000000000001E-4</v>
@@ -2837,7 +2211,7 @@
         <v>0.42299999999999999</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F18" s="16">
         <f>SQRT(F7^2 +F14^2)</f>
@@ -3185,6 +2559,830 @@
         <v>60</v>
       </c>
       <c r="B61" s="13">
+        <v>0.42599999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB93E90-41DC-4A57-BF3D-E5677749569C}">
+  <dimension ref="A4:S24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>1</v>
+      </c>
+      <c r="B5" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D5" s="23">
+        <v>21</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="G5" s="23">
+        <v>41</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L5" s="23">
+        <v>1</v>
+      </c>
+      <c r="M5" s="24">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="O5" s="23">
+        <v>21</v>
+      </c>
+      <c r="P5" s="24">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="R5" s="23">
+        <v>41</v>
+      </c>
+      <c r="S5" s="24">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>2</v>
+      </c>
+      <c r="B6" s="25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D6" s="23">
+        <v>22</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G6" s="23">
+        <v>42</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L6" s="23">
+        <v>2</v>
+      </c>
+      <c r="M6" s="25">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="O6" s="23">
+        <v>22</v>
+      </c>
+      <c r="P6" s="25">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="R6" s="23">
+        <v>42</v>
+      </c>
+      <c r="S6" s="25">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>3</v>
+      </c>
+      <c r="B7" s="25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D7" s="23">
+        <v>23</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G7" s="23">
+        <v>43</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L7" s="23">
+        <v>3</v>
+      </c>
+      <c r="M7" s="25">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="O7" s="23">
+        <v>23</v>
+      </c>
+      <c r="P7" s="25">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="R7" s="23">
+        <v>43</v>
+      </c>
+      <c r="S7" s="25">
+        <v>0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>4</v>
+      </c>
+      <c r="B8" s="25">
+        <v>0.21</v>
+      </c>
+      <c r="D8" s="23">
+        <v>24</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="G8" s="23">
+        <v>44</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L8" s="23">
+        <v>4</v>
+      </c>
+      <c r="M8" s="25">
+        <v>0.439</v>
+      </c>
+      <c r="O8" s="23">
+        <v>24</v>
+      </c>
+      <c r="P8" s="25">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="R8" s="23">
+        <v>44</v>
+      </c>
+      <c r="S8" s="25">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>5</v>
+      </c>
+      <c r="B9" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D9" s="23">
+        <v>25</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G9" s="23">
+        <v>45</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="L9" s="23">
+        <v>5</v>
+      </c>
+      <c r="M9" s="25">
+        <v>0.434</v>
+      </c>
+      <c r="O9" s="23">
+        <v>25</v>
+      </c>
+      <c r="P9" s="25">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="R9" s="23">
+        <v>45</v>
+      </c>
+      <c r="S9" s="25">
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>6</v>
+      </c>
+      <c r="B10" s="25">
+        <v>0.21</v>
+      </c>
+      <c r="D10" s="23">
+        <v>26</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0.22</v>
+      </c>
+      <c r="G10" s="23">
+        <v>46</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L10" s="23">
+        <v>6</v>
+      </c>
+      <c r="M10" s="25">
+        <v>0.436</v>
+      </c>
+      <c r="O10" s="23">
+        <v>26</v>
+      </c>
+      <c r="P10" s="25">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="R10" s="23">
+        <v>46</v>
+      </c>
+      <c r="S10" s="25">
+        <v>0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>7</v>
+      </c>
+      <c r="B11" s="25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D11" s="23">
+        <v>27</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.36</v>
+      </c>
+      <c r="G11" s="23">
+        <v>47</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0.22</v>
+      </c>
+      <c r="L11" s="23">
+        <v>7</v>
+      </c>
+      <c r="M11" s="25">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="O11" s="23">
+        <v>27</v>
+      </c>
+      <c r="P11" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="R11" s="23">
+        <v>47</v>
+      </c>
+      <c r="S11" s="25">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25">
+        <v>0.27</v>
+      </c>
+      <c r="D12" s="23">
+        <v>28</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="G12" s="23">
+        <v>48</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0.22</v>
+      </c>
+      <c r="L12" s="23">
+        <v>8</v>
+      </c>
+      <c r="M12" s="25">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="O12" s="23">
+        <v>28</v>
+      </c>
+      <c r="P12" s="25">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="R12" s="23">
+        <v>48</v>
+      </c>
+      <c r="S12" s="25">
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
+        <v>9</v>
+      </c>
+      <c r="B13" s="25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D13" s="23">
+        <v>29</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G13" s="23">
+        <v>49</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0.23</v>
+      </c>
+      <c r="L13" s="23">
+        <v>9</v>
+      </c>
+      <c r="M13" s="25">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="O13" s="23">
+        <v>29</v>
+      </c>
+      <c r="P13" s="25">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="R13" s="23">
+        <v>49</v>
+      </c>
+      <c r="S13" s="25">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>10</v>
+      </c>
+      <c r="B14" s="25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D14" s="23">
+        <v>30</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0.36</v>
+      </c>
+      <c r="G14" s="23">
+        <v>50</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="L14" s="23">
+        <v>10</v>
+      </c>
+      <c r="M14" s="25">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="O14" s="23">
+        <v>30</v>
+      </c>
+      <c r="P14" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="R14" s="23">
+        <v>50</v>
+      </c>
+      <c r="S14" s="25">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
+        <v>11</v>
+      </c>
+      <c r="B15" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="D15" s="23">
+        <v>31</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G15" s="23">
+        <v>51</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="L15" s="23">
+        <v>11</v>
+      </c>
+      <c r="M15" s="25">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="O15" s="23">
+        <v>31</v>
+      </c>
+      <c r="P15" s="25">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="R15" s="23">
+        <v>51</v>
+      </c>
+      <c r="S15" s="25">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <v>12</v>
+      </c>
+      <c r="B16" s="25">
+        <v>0.34</v>
+      </c>
+      <c r="D16" s="23">
+        <v>32</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="G16" s="23">
+        <v>52</v>
+      </c>
+      <c r="H16" s="25">
+        <v>0.36</v>
+      </c>
+      <c r="L16" s="23">
+        <v>12</v>
+      </c>
+      <c r="M16" s="25">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="O16" s="23">
+        <v>32</v>
+      </c>
+      <c r="P16" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="R16" s="23">
+        <v>52</v>
+      </c>
+      <c r="S16" s="25">
+        <v>0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
+        <v>13</v>
+      </c>
+      <c r="B17" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="D17" s="23">
+        <v>33</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G17" s="23">
+        <v>53</v>
+      </c>
+      <c r="H17" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="L17" s="23">
+        <v>13</v>
+      </c>
+      <c r="M17" s="25">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="O17" s="23">
+        <v>33</v>
+      </c>
+      <c r="P17" s="25">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="R17" s="23">
+        <v>53</v>
+      </c>
+      <c r="S17" s="25">
+        <v>0.42399999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
+        <v>14</v>
+      </c>
+      <c r="B18" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D18" s="23">
+        <v>34</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="G18" s="23">
+        <v>54</v>
+      </c>
+      <c r="H18" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L18" s="23">
+        <v>14</v>
+      </c>
+      <c r="M18" s="25">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="O18" s="23">
+        <v>34</v>
+      </c>
+      <c r="P18" s="25">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="R18" s="23">
+        <v>54</v>
+      </c>
+      <c r="S18" s="25">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
+        <v>15</v>
+      </c>
+      <c r="B19" s="25">
+        <v>0.22</v>
+      </c>
+      <c r="D19" s="23">
+        <v>35</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="G19" s="23">
+        <v>55</v>
+      </c>
+      <c r="H19" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L19" s="23">
+        <v>15</v>
+      </c>
+      <c r="M19" s="25">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="O19" s="23">
+        <v>35</v>
+      </c>
+      <c r="P19" s="25">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="R19" s="23">
+        <v>55</v>
+      </c>
+      <c r="S19" s="25">
+        <v>0.41299999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
+        <v>16</v>
+      </c>
+      <c r="B20" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D20" s="23">
+        <v>36</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0.22</v>
+      </c>
+      <c r="G20" s="23">
+        <v>56</v>
+      </c>
+      <c r="H20" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="L20" s="23">
+        <v>16</v>
+      </c>
+      <c r="M20" s="25">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="O20" s="23">
+        <v>36</v>
+      </c>
+      <c r="P20" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="R20" s="23">
+        <v>56</v>
+      </c>
+      <c r="S20" s="25">
+        <v>0.41899999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="23">
+        <v>17</v>
+      </c>
+      <c r="B21" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D21" s="23">
+        <v>37</v>
+      </c>
+      <c r="E21" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G21" s="23">
+        <v>57</v>
+      </c>
+      <c r="H21" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="L21" s="23">
+        <v>17</v>
+      </c>
+      <c r="M21" s="25">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="O21" s="23">
+        <v>37</v>
+      </c>
+      <c r="P21" s="25">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="R21" s="23">
+        <v>57</v>
+      </c>
+      <c r="S21" s="25">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="23">
+        <v>18</v>
+      </c>
+      <c r="B22" s="25">
+        <v>0.36</v>
+      </c>
+      <c r="D22" s="23">
+        <v>38</v>
+      </c>
+      <c r="E22" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G22" s="23">
+        <v>58</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="L22" s="23">
+        <v>18</v>
+      </c>
+      <c r="M22" s="25">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="O22" s="23">
+        <v>38</v>
+      </c>
+      <c r="P22" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="R22" s="23">
+        <v>58</v>
+      </c>
+      <c r="S22" s="25">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
+        <v>19</v>
+      </c>
+      <c r="B23" s="25">
+        <v>0.36</v>
+      </c>
+      <c r="D23" s="23">
+        <v>39</v>
+      </c>
+      <c r="E23" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G23" s="23">
+        <v>59</v>
+      </c>
+      <c r="H23" s="25">
+        <v>0.22</v>
+      </c>
+      <c r="L23" s="23">
+        <v>19</v>
+      </c>
+      <c r="M23" s="25">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="O23" s="23">
+        <v>39</v>
+      </c>
+      <c r="P23" s="25">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="R23" s="23">
+        <v>59</v>
+      </c>
+      <c r="S23" s="25">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="23">
+        <v>20</v>
+      </c>
+      <c r="B24" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D24" s="23">
+        <v>40</v>
+      </c>
+      <c r="E24" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G24" s="23">
+        <v>60</v>
+      </c>
+      <c r="H24" s="25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L24" s="23">
+        <v>20</v>
+      </c>
+      <c r="M24" s="25">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="O24" s="23">
+        <v>40</v>
+      </c>
+      <c r="P24" s="25">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="R24" s="23">
+        <v>60</v>
+      </c>
+      <c r="S24" s="25">
         <v>0.42599999999999999</v>
       </c>
     </row>
